--- a/363-annexe-acronyme-cda/ig/CodeSystem-tddui-encounter-identifier.xlsx
+++ b/363-annexe-acronyme-cda/ig/CodeSystem-tddui-encounter-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T12:08:42+00:00</t>
+    <t>2025-09-10T12:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
